--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/23_Çankırı_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/23_Çankırı_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1734B73-DC80-4E57-A9AF-1FC26DB6D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05278558-2495-4FE9-B768-79D597F2D477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{8EB360B8-EAB3-4062-BA61-670AF261F142}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{FFBA6C03-BF29-4173-9AAB-E46D7E5E81B1}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{34706E40-368E-4386-AFEF-F14B75E77728}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5821F4D7-24F4-4643-8329-B5DE83064ABB}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D41FB1F6-8FC1-42F0-B4DC-81C9FCD3CA18}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F7E43E44-8AB4-42DF-B5F1-C7E3DB2246DA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{162591E9-B80D-4F1D-B545-982CA17AE023}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{F217EF9E-AAD8-493D-8E02-EAC2A1D2AE12}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{D5DFFF73-BB57-4ECA-BC54-0A915BE3F6CB}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5D05F2A1-4747-4328-B796-E757EC73AA82}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B5619D08-6EEE-4BF8-BD68-910D41DAEAEF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{142134BA-A5AE-44E4-9991-F91C49AC5394}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E4C86CFB-453C-4C8A-AD76-8C431275C6A0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{332775EA-34F9-43C7-BC6E-2D32B3A46B72}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{249BA6B2-1BC9-492A-9F3E-44BC939D7038}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{C003B501-8335-48DB-82CB-03614390775C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B804FDD-C53B-40DB-95A8-953C521BFD94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71BA290-E7FA-482F-BDA8-82C6DA3DFDE9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF4B24A-B59A-436A-9CE0-761586C9B768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0036A65B-8D8B-4D7F-B12D-59C7884EEA8E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3665,7 +3665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E375C2A5-75C3-4D62-9A22-1EADBAB7FDFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B387D80-2C13-4746-A226-DFF0BD3C655D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4906,7 +4906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E92DFA-BE10-4A55-B0AE-EDD6DA17F7FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FA3A56-F0E5-4541-AB86-2E494CF961C8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6143,7 +6143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015A0DA3-350E-40F1-90AE-EB66BE9EBBDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43E985F-5D88-4861-8CA2-FEDB160ED86C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7360,7 +7360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0ABEE-B812-46B2-A7AC-EE3E7EDA5387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CB7EEC-36A2-44DD-A4D5-A2825E5A105C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
